--- a/button_names.xlsx
+++ b/button_names.xlsx
@@ -235,9 +235,6 @@
     <t>Label_of_ Y</t>
   </si>
   <si>
-    <t>Value_of_ Y</t>
-  </si>
-  <si>
     <t>Z</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>Label_of_ Mx</t>
+  </si>
+  <si>
+    <t>Value_of_ Y@!@#$%^&amp;*()_+12345610</t>
   </si>
 </sst>
 </file>
@@ -678,17 +678,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -718,10 +718,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -729,10 +729,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -740,10 +740,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -751,10 +751,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -762,10 +762,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,10 +773,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -784,10 +784,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -795,10 +795,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -867,7 +867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -878,7 +878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -889,7 +889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -900,7 +900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -911,7 +911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -922,7 +922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>33</v>
       </c>
@@ -933,29 +933,29 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>41</v>
       </c>
@@ -966,7 +966,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -977,7 +977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
@@ -988,7 +988,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
@@ -999,18 +999,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>57</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
@@ -1073,20 +1073,20 @@
         <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
